--- a/scene_cat_exp_2023.2.2_english/input_files/87_scenecat_categorization_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/87_scenecat_categorization_kitchens_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>325</v>
+        <v>244</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,53 +497,53 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_xesl0.png</t>
+          <t>stimuli/img_d3t0o.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>69.28571428571429</v>
+        <v>66.95121951219512</v>
       </c>
       <c r="N2">
-        <v>47.35714285714285</v>
+        <v>42.92682926829269</v>
       </c>
       <c r="O2">
-        <v>58.32142857142857</v>
+        <v>54.9390243902439</v>
       </c>
       <c r="P2">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,38 +589,38 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_7pgd2.png</t>
+          <t>stimuli/img_i2k07.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>78.59375</v>
+        <v>64.25925925925925</v>
       </c>
       <c r="N3">
-        <v>57.84375</v>
+        <v>40.92592592592592</v>
       </c>
       <c r="O3">
-        <v>68.21875</v>
+        <v>52.59259259259259</v>
       </c>
       <c r="P3">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>327</v>
+        <v>246</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,53 +651,53 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_j5rpx.png</t>
+          <t>stimuli/img_g9od8.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>72.24242424242425</v>
+        <v>59.34883720930232</v>
       </c>
       <c r="N4">
-        <v>50</v>
+        <v>37.83720930232558</v>
       </c>
       <c r="O4">
-        <v>61.12121212121212</v>
+        <v>48.59302325581395</v>
       </c>
       <c r="P4">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>328</v>
+        <v>247</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -728,53 +728,53 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_c0me7.png</t>
+          <t>stimuli/img_fmgjx.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>68.40000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="N5">
-        <v>45.62857142857143</v>
+        <v>56.975</v>
       </c>
       <c r="O5">
-        <v>57.01428571428572</v>
+        <v>68.4375</v>
       </c>
       <c r="P5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V5">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -796,7 +796,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>329</v>
+        <v>248</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -820,38 +820,38 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_84s7n.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>78.88888888888889</v>
+        <v>11.03125</v>
       </c>
       <c r="N6">
-        <v>59.30555555555556</v>
+        <v>2.90625</v>
       </c>
       <c r="O6">
-        <v>69.09722222222223</v>
+        <v>6.96875</v>
       </c>
       <c r="P6">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -873,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -882,53 +882,53 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_b89t4.png</t>
+          <t>stimuli/img_uy1n4.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>71.41463414634147</v>
+        <v>76.30555555555556</v>
       </c>
       <c r="N7">
-        <v>47.85365853658536</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="O7">
-        <v>59.63414634146342</v>
+        <v>65.81944444444444</v>
       </c>
       <c r="P7">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -950,7 +950,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -974,20 +974,20 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_lpr0l.png</t>
+          <t>stimuli/img_xu1p3.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>77.04651162790698</v>
+        <v>75.27659574468085</v>
       </c>
       <c r="N8">
-        <v>59.86046511627907</v>
+        <v>56.68085106382978</v>
       </c>
       <c r="O8">
-        <v>68.45348837209303</v>
+        <v>65.97872340425532</v>
       </c>
       <c r="P8">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -999,13 +999,13 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1027,7 +1027,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1036,53 +1036,53 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_05flq.png</t>
+          <t>stimuli/img_02alv.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>47.10344827586207</v>
+        <v>61.8</v>
       </c>
       <c r="N9">
-        <v>25.72413793103448</v>
+        <v>37.8</v>
       </c>
       <c r="O9">
-        <v>36.41379310344828</v>
+        <v>49.8</v>
       </c>
       <c r="P9">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1104,7 +1104,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>334</v>
+        <v>253</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1205,20 +1205,20 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_s9are.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>90.14285714285714</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N11">
-        <v>75.22857142857143</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O11">
-        <v>82.68571428571428</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P11">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1258,7 +1258,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>335</v>
+        <v>254</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1267,53 +1267,53 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_uttnz.png</t>
+          <t>stimuli/img_jz3kd.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>69.91891891891892</v>
+        <v>72.79411764705883</v>
       </c>
       <c r="N12">
-        <v>49.91891891891892</v>
+        <v>51.64705882352941</v>
       </c>
       <c r="O12">
-        <v>59.91891891891892</v>
+        <v>62.22058823529412</v>
       </c>
       <c r="P12">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1335,7 +1335,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>336</v>
+        <v>255</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1359,38 +1359,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_uy1n4.png</t>
+          <t>stimuli/img_xti0z.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>76.30555555555556</v>
+        <v>81.40625</v>
       </c>
       <c r="N13">
-        <v>55.33333333333334</v>
+        <v>61.4375</v>
       </c>
       <c r="O13">
-        <v>65.81944444444444</v>
+        <v>71.421875</v>
       </c>
       <c r="P13">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V13">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1412,7 +1412,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>337</v>
+        <v>256</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1421,53 +1421,53 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_c79r7.png</t>
+          <t>stimuli/img_huisn.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>56.26470588235294</v>
+        <v>73.63888888888889</v>
       </c>
       <c r="N14">
-        <v>34.26470588235294</v>
+        <v>46.36111111111111</v>
       </c>
       <c r="O14">
-        <v>45.26470588235294</v>
+        <v>60</v>
       </c>
       <c r="P14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1489,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>338</v>
+        <v>257</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1498,35 +1498,35 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_d3t0o.png</t>
+          <t>stimuli/img_c0me7.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>66.95121951219512</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="N15">
-        <v>42.92682926829269</v>
+        <v>45.62857142857143</v>
       </c>
       <c r="O15">
-        <v>54.9390243902439</v>
+        <v>57.01428571428572</v>
       </c>
       <c r="P15">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -1566,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1575,53 +1575,53 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_4974k.png</t>
+          <t>stimuli/img_bwo9g.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>79.89130434782609</v>
+        <v>64.81818181818181</v>
       </c>
       <c r="N16">
-        <v>58.19565217391305</v>
+        <v>42.36363636363637</v>
       </c>
       <c r="O16">
-        <v>69.04347826086956</v>
+        <v>53.59090909090909</v>
       </c>
       <c r="P16">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="V16">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1643,7 +1643,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1667,38 +1667,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_cv9qj.png</t>
+          <t>stimuli/img_05flq.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>60.34375</v>
+        <v>47.10344827586207</v>
       </c>
       <c r="N17">
-        <v>35.34375</v>
+        <v>25.72413793103448</v>
       </c>
       <c r="O17">
-        <v>47.84375</v>
+        <v>36.41379310344828</v>
       </c>
       <c r="P17">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1720,7 +1720,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1744,38 +1744,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_ifebc.png</t>
+          <t>stimuli/img_j5rpx.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>84</v>
+        <v>72.24242424242425</v>
       </c>
       <c r="N18">
-        <v>65.88235294117646</v>
+        <v>50</v>
       </c>
       <c r="O18">
-        <v>74.94117647058823</v>
+        <v>61.12121212121212</v>
       </c>
       <c r="P18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U18">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V18">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1797,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>342</v>
+        <v>261</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1806,53 +1806,53 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_twj5p.png</t>
+          <t>stimuli/img_cv9qj.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>67.71739130434783</v>
+        <v>60.34375</v>
       </c>
       <c r="N19">
-        <v>42.08695652173913</v>
+        <v>35.34375</v>
       </c>
       <c r="O19">
-        <v>54.90217391304348</v>
+        <v>47.84375</v>
       </c>
       <c r="P19">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1874,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1883,7 +1883,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1898,38 +1898,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_h13c3.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>75.27659574468085</v>
+        <v>71.80555555555556</v>
       </c>
       <c r="N20">
-        <v>56.68085106382978</v>
+        <v>47.86111111111111</v>
       </c>
       <c r="O20">
-        <v>65.97872340425532</v>
+        <v>59.83333333333334</v>
       </c>
       <c r="P20">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S20">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1951,7 +1951,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1975,38 +1975,38 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_h13c3.png</t>
+          <t>stimuli/img_088sa.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>71.80555555555556</v>
+        <v>67.36363636363636</v>
       </c>
       <c r="N21">
-        <v>47.86111111111111</v>
+        <v>42.12121212121212</v>
       </c>
       <c r="O21">
-        <v>59.83333333333334</v>
+        <v>54.74242424242424</v>
       </c>
       <c r="P21">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2028,7 +2028,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>345</v>
+        <v>264</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2037,53 +2037,53 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_02alv.png</t>
+          <t>stimuli/img_c79r7.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>61.8</v>
+        <v>56.26470588235294</v>
       </c>
       <c r="N22">
-        <v>37.8</v>
+        <v>34.26470588235294</v>
       </c>
       <c r="O22">
-        <v>49.8</v>
+        <v>45.26470588235294</v>
       </c>
       <c r="P22">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2114,53 +2114,53 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_i2k07.png</t>
+          <t>stimuli/img_abobq.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>64.25925925925925</v>
+        <v>75.18421052631579</v>
       </c>
       <c r="N23">
-        <v>40.92592592592592</v>
+        <v>54.13157894736842</v>
       </c>
       <c r="O23">
-        <v>52.59259259259259</v>
+        <v>64.65789473684211</v>
       </c>
       <c r="P23">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2182,7 +2182,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>347</v>
+        <v>266</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2191,35 +2191,35 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_bwo9g.png</t>
+          <t>stimuli/img_lpas9.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>64.81818181818181</v>
+        <v>59.36585365853659</v>
       </c>
       <c r="N24">
-        <v>42.36363636363637</v>
+        <v>39.09756097560975</v>
       </c>
       <c r="O24">
-        <v>53.59090909090909</v>
+        <v>49.23170731707317</v>
       </c>
       <c r="P24">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q24">
         <v>4</v>
@@ -2259,7 +2259,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>348</v>
+        <v>267</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2268,53 +2268,53 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_g9od8.png</t>
+          <t>stimuli/img_ifebc.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>59.34883720930232</v>
+        <v>84</v>
       </c>
       <c r="N25">
-        <v>37.83720930232558</v>
+        <v>65.88235294117646</v>
       </c>
       <c r="O25">
-        <v>48.59302325581395</v>
+        <v>74.94117647058823</v>
       </c>
       <c r="P25">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="U25">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V25">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2336,7 +2336,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>349</v>
+        <v>268</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2360,38 +2360,38 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_qrc78.png</t>
+          <t>stimuli/img_mqnl6.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>76.2</v>
+        <v>70.7560975609756</v>
       </c>
       <c r="N26">
-        <v>59.875</v>
+        <v>45.68292682926829</v>
       </c>
       <c r="O26">
-        <v>68.03749999999999</v>
+        <v>58.21951219512195</v>
       </c>
       <c r="P26">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27">
@@ -2413,7 +2413,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>350</v>
+        <v>269</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2422,53 +2422,53 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_ncr40.png</t>
+          <t>stimuli/img_bdz92.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>75.66666666666667</v>
+        <v>63.72222222222222</v>
       </c>
       <c r="N27">
-        <v>54.27272727272727</v>
+        <v>42.63888888888889</v>
       </c>
       <c r="O27">
-        <v>64.96969696969697</v>
+        <v>53.18055555555556</v>
       </c>
       <c r="P27">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2490,7 +2490,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2514,38 +2514,38 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_411xa.png</t>
+          <t>stimuli/img_ncr40.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>51.03030303030303</v>
+        <v>75.66666666666667</v>
       </c>
       <c r="N28">
-        <v>28.93939393939394</v>
+        <v>54.27272727272727</v>
       </c>
       <c r="O28">
-        <v>39.98484848484848</v>
+        <v>64.96969696969697</v>
       </c>
       <c r="P28">
         <v>33</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -2567,7 +2567,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>352</v>
+        <v>271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2576,53 +2576,53 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_lpas9.png</t>
+          <t>stimuli/img_7pgd2.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>59.36585365853659</v>
+        <v>78.59375</v>
       </c>
       <c r="N29">
-        <v>39.09756097560975</v>
+        <v>57.84375</v>
       </c>
       <c r="O29">
-        <v>49.23170731707317</v>
+        <v>68.21875</v>
       </c>
       <c r="P29">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="Q29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -2644,7 +2644,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>353</v>
+        <v>272</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2668,38 +2668,38 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_huisn.png</t>
+          <t>stimuli/img_lpr0l.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>73.63888888888889</v>
+        <v>77.04651162790698</v>
       </c>
       <c r="N30">
-        <v>46.36111111111111</v>
+        <v>59.86046511627907</v>
       </c>
       <c r="O30">
-        <v>60</v>
+        <v>68.45348837209303</v>
       </c>
       <c r="P30">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V30">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -2721,7 +2721,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>354</v>
+        <v>273</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2730,53 +2730,53 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_zh8ms.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>86.25925925925925</v>
+        <v>59.82608695652174</v>
       </c>
       <c r="N31">
-        <v>66.25925925925925</v>
+        <v>39.43478260869565</v>
       </c>
       <c r="O31">
-        <v>76.25925925925925</v>
+        <v>49.6304347826087</v>
       </c>
       <c r="P31">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V31">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -2798,7 +2798,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>355</v>
+        <v>274</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2807,53 +2807,53 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_bdz92.png</t>
+          <t>stimuli/img_s9are.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>63.72222222222222</v>
+        <v>90.14285714285714</v>
       </c>
       <c r="N32">
-        <v>42.63888888888889</v>
+        <v>75.22857142857143</v>
       </c>
       <c r="O32">
-        <v>53.18055555555556</v>
+        <v>82.68571428571428</v>
       </c>
       <c r="P32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V32">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2875,7 +2875,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>356</v>
+        <v>275</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2884,53 +2884,53 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>bedrooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_mqnl6.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>70.7560975609756</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N33">
-        <v>45.68292682926829</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O33">
-        <v>58.21951219512195</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P33">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V33">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2952,7 +2952,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>357</v>
+        <v>276</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2976,38 +2976,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_xti0z.png</t>
+          <t>stimuli/img_xesl0.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>81.40625</v>
+        <v>69.28571428571429</v>
       </c>
       <c r="N34">
-        <v>61.4375</v>
+        <v>47.35714285714285</v>
       </c>
       <c r="O34">
-        <v>71.421875</v>
+        <v>58.32142857142857</v>
       </c>
       <c r="P34">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Q34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="T34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V34">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -3029,7 +3029,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>358</v>
+        <v>277</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3053,38 +3053,38 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_088sa.png</t>
+          <t>stimuli/img_b89t4.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>67.36363636363636</v>
+        <v>71.41463414634147</v>
       </c>
       <c r="N35">
-        <v>42.12121212121212</v>
+        <v>47.85365853658536</v>
       </c>
       <c r="O35">
-        <v>54.74242424242424</v>
+        <v>59.63414634146342</v>
       </c>
       <c r="P35">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Q35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V35">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -3106,7 +3106,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>359</v>
+        <v>278</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3130,38 +3130,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_zh8ms.png</t>
+          <t>stimuli/img_qrc78.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>59.82608695652174</v>
+        <v>76.2</v>
       </c>
       <c r="N36">
-        <v>39.43478260869565</v>
+        <v>59.875</v>
       </c>
       <c r="O36">
-        <v>49.6304347826087</v>
+        <v>68.03749999999999</v>
       </c>
       <c r="P36">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V36">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -3183,7 +3183,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>360</v>
+        <v>279</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3192,53 +3192,53 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_ua9bs.png</t>
+          <t>stimuli/img_uttnz.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>82</v>
+        <v>69.91891891891892</v>
       </c>
       <c r="N37">
-        <v>62.23333333333333</v>
+        <v>49.91891891891892</v>
       </c>
       <c r="O37">
-        <v>72.11666666666667</v>
+        <v>59.91891891891892</v>
       </c>
       <c r="P37">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="U37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="V37">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -3260,7 +3260,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>361</v>
+        <v>280</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3269,53 +3269,53 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>bedrooms</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_84s7n.png</t>
+          <t>stimuli/img_twj5p.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>11.03125</v>
+        <v>67.71739130434783</v>
       </c>
       <c r="N38">
-        <v>2.90625</v>
+        <v>42.08695652173913</v>
       </c>
       <c r="O38">
-        <v>6.96875</v>
+        <v>54.90217391304348</v>
       </c>
       <c r="P38">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -3337,7 +3337,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>362</v>
+        <v>281</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3346,53 +3346,53 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>target</t>
+          <t>distractor</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_jz3kd.png</t>
+          <t>stimuli/img_4974k.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>72.79411764705883</v>
+        <v>79.89130434782609</v>
       </c>
       <c r="N39">
-        <v>51.64705882352941</v>
+        <v>58.19565217391305</v>
       </c>
       <c r="O39">
-        <v>62.22058823529412</v>
+        <v>69.04347826086956</v>
       </c>
       <c r="P39">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V39">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -3414,7 +3414,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>363</v>
+        <v>282</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3423,53 +3423,53 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_fmgjx.png</t>
+          <t>stimuli/img_411xa.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>79.90000000000001</v>
+        <v>51.03030303030303</v>
       </c>
       <c r="N40">
-        <v>56.975</v>
+        <v>28.93939393939394</v>
       </c>
       <c r="O40">
-        <v>68.4375</v>
+        <v>39.98484848484848</v>
       </c>
       <c r="P40">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3491,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3500,53 +3500,53 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>distractor</t>
+          <t>target</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_abobq.png</t>
+          <t>stimuli/img_ua9bs.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>75.18421052631579</v>
+        <v>82</v>
       </c>
       <c r="N41">
-        <v>54.13157894736842</v>
+        <v>62.23333333333333</v>
       </c>
       <c r="O41">
-        <v>64.65789473684211</v>
+        <v>72.11666666666667</v>
       </c>
       <c r="P41">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="Q41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V41">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
